--- a/pred_ohlcv/54_21/2019-10-19 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BCH ohlcv.xlsx
@@ -4760,7 +4760,7 @@
         <v>-107.36297492</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-107.37307492</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-107.37307492</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-105.33997492</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-75.03120111999996</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-95.68570111999996</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-95.68570111999996</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-94.17530111999996</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-79.78080111999995</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-132.47030112</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-131.99790112</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-127.92920112</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-141.17380112</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-141.86390112</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-141.86390112</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-141.63890112</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-142.63890112</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-142.63890112</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-144.02910112</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-105.90250112</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-105.90250112</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-145.0495011199999</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-123.8538011199999</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-119.6977011199999</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-120.1639011199999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-118.96710112</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-120.32090112</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-120.52430112</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-120.52430112</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-87.82873910999996</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-85.82873910999996</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-76.62463910999996</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-15.91733910999995</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>29.75216089000005</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>207.5850077700001</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>207.5850077700001</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>224.7279077700001</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>239.5385077700001</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>406.5662077700001</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>437.5686077700001</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>422.7476077700001</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>442.3252077700001</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>437.3818077700001</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>442.8805077700001</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>442.8805077700001</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>442.3051077700001</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>441.44670777</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>417.00330777</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>558.1928077700001</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>558.1928077700001</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>592.22420777</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>637.6588077700001</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>617.7905077700001</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>617.7905077700001</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>777.5337077700001</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>770.0643077700001</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>785.2926077700001</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>785.2926077700001</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>767.6472077700001</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>779.5953077700001</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>772.1483077700001</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>760.85730777</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>760.85730777</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>751.73280777</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>747.2598077700001</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>736.2605077700001</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>749.5009077700001</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>749.5009077700001</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>748.4319077700002</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>750.4319077700002</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>750.4319077700002</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>742.1888077700002</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>540.0633077700002</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>542.6849077700002</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>515.7639077700002</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>515.7639077700002</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>516.2054077700002</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>514.1311077700002</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>534.5683077700002</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BCH ohlcv.xlsx
@@ -4760,7 +4760,7 @@
         <v>-107.36297492</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-107.37307492</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-107.37307492</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-105.33997492</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-75.03120111999996</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-95.68570111999996</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-95.68570111999996</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-94.17530111999996</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-79.78080111999995</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-132.47030112</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-131.99790112</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-127.92920112</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-141.17380112</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-141.86390112</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-141.86390112</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-141.63890112</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-142.63890112</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-142.63890112</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-144.02910112</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-105.90250112</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-105.90250112</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-145.0495011199999</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-123.8538011199999</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-119.6977011199999</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-120.1639011199999</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-118.96710112</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-120.32090112</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-120.52430112</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-120.52430112</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-87.82873910999996</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-85.82873910999996</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-76.62463910999996</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-32.94533910999996</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-32.94533910999996</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-15.91733910999995</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>29.75216089000005</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>207.5850077700001</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>207.5850077700001</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>224.7279077700001</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>239.5385077700001</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>406.5662077700001</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>437.5686077700001</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>422.7476077700001</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>442.3252077700001</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>437.3818077700001</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>442.8805077700001</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>442.8805077700001</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>442.3051077700001</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>441.44670777</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>417.00330777</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>558.1928077700001</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>558.1928077700001</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>592.22420777</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>637.6588077700001</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>617.7905077700001</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>777.5337077700001</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>785.2926077700001</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>785.2926077700001</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>767.6472077700001</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>779.5953077700001</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>772.1483077700001</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>760.85730777</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>760.85730777</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>751.73280777</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>747.2598077700001</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>736.2605077700001</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>749.5009077700001</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>749.5009077700001</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>748.4319077700002</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>750.4319077700002</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>750.4319077700002</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>742.1888077700002</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>709.3421077700002</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>554.9106077700002</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>540.0633077700002</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>539.6633077700002</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>540.1273077700002</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>540.4190077700002</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>542.6849077700002</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>515.7639077700002</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>515.7639077700002</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>516.2054077700002</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>514.1311077700002</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>554.6180077700002</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>534.5683077700002</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>797.7527228300004</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
